--- a/preprocess/學校、缺額與錄取名單.xlsx
+++ b/preprocess/學校、缺額與錄取名單.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyce\Desktop\bigDataAndsociety\preprocess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D9657-6DF4-4F07-B0EB-1CDC22FBC07F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CA3F0-4266-422C-AB4E-C9FB14FDB73F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學校基本資料" sheetId="4" r:id="rId1"/>
     <sheet name="109族語教師缺額" sheetId="3" r:id="rId2"/>
-    <sheet name="109錄取名單" sheetId="7" r:id="rId3"/>
-    <sheet name="奇怪的徵選" sheetId="10" r:id="rId4"/>
-    <sheet name="109原住民人口結構" sheetId="11" r:id="rId5"/>
+    <sheet name="民族語言 缺額" sheetId="12" r:id="rId3"/>
+    <sheet name="109錄取名單" sheetId="7" r:id="rId4"/>
+    <sheet name="奇怪的徵選" sheetId="10" r:id="rId5"/>
+    <sheet name="109原住民人口結構" sheetId="11" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'民族語言 缺額'!$A$1:$D$38</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7638,7 +7642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="2177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="2200">
   <si>
     <t>學校名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14856,6 +14860,98 @@
   </si>
   <si>
     <t>景美國小 康樂國小、北埔國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸阿美語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀姑巒阿美語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同國中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東澳國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新和國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豐濱國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀音國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源城國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地磨兒國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬遠國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴楠花國中小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景美國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯凱語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹縣市3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">仁愛國小 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗縣 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里山國小2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊達邵國小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15126,7 +15222,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15184,6 +15280,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8AF7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15274,7 +15400,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15408,6 +15534,16 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -15694,8 +15830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35047B5-D19B-40BC-A7D1-94E7760A3529}">
   <dimension ref="A1:AJ387"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -57711,8 +57847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACF500A-2D0A-48C0-B539-10E53D0D1FE0}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -58755,6 +58891,866 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C9575D-9DB1-450F-B089-80A6198C9329}">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="38" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="53" t="s">
+        <v>2163</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>2050</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>2079</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>2080</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>2164</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>2190</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>2189</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
+        <v>2192</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>2172</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>2197</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>2196</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>2199</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="116">
+      <c r="A30" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D38" xr:uid="{1164641F-09C3-45AA-915F-CE46B1026128}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F24642-3179-4C32-A9BC-C85549A03EC5}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -59032,7 +60028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECDC326-E789-4C98-8C00-1E96D9351A4F}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -59297,7 +60293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F38FC7-CAFC-44D9-A68B-EBC6788E4BF5}">
   <dimension ref="A1:DA55"/>
   <sheetViews>
@@ -76566,6 +77562,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B53:B55"/>
@@ -76582,9 +77581,6 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
